--- a/orcamentos/JOCKEY CLUB_pÁSCOA 2023.xlsx
+++ b/orcamentos/JOCKEY CLUB_pÁSCOA 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6BE811-EEAE-4B5F-9D41-00688EF855E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FCD18C-1FF0-413E-BAF0-7612F2750913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Ovo geométrico, estrutura metálica com mangueira incandescente e LED, 4 linhas zigue-zague e 3 retas</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentosParaClientes\OrcamentoGerado_JOCKEY CLUB.xlsx</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -526,7 +529,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -572,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -596,6 +599,9 @@
       </c>
       <c r="J3" t="s">
         <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +757,7 @@
         <v>32</v>
       </c>
       <c r="M2">
-        <f>C2*H2</f>
+        <f t="shared" ref="M2:M7" si="0">C2*H2</f>
         <v>2931.6633000000002</v>
       </c>
     </row>
@@ -778,7 +784,7 @@
         <v>36</v>
       </c>
       <c r="M3">
-        <f>C3*H3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -811,7 +817,7 @@
         <v>40</v>
       </c>
       <c r="M4">
-        <f>C4*H4</f>
+        <f t="shared" si="0"/>
         <v>7321.884</v>
       </c>
     </row>
@@ -844,7 +850,7 @@
         <v>42</v>
       </c>
       <c r="M5">
-        <f>C5*H5</f>
+        <f t="shared" si="0"/>
         <v>3660.942</v>
       </c>
     </row>
@@ -877,7 +883,7 @@
         <v>45</v>
       </c>
       <c r="M6">
-        <f>C6*H6</f>
+        <f t="shared" si="0"/>
         <v>2743.5</v>
       </c>
     </row>
@@ -913,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="M7">
-        <f>C7*H7</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
